--- a/Create.xlsx
+++ b/Create.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
+  <si>
+    <t>Credit</t>
+  </si>
   <si>
     <t>Shruthi H</t>
   </si>
@@ -98,6 +101,18 @@
   </si>
   <si>
     <t>lhs.adithya1@gmail.com</t>
+  </si>
+  <si>
+    <t>Nihal Palankar</t>
+  </si>
+  <si>
+    <t>8050327050</t>
+  </si>
+  <si>
+    <t>nihalpalankar689@gmail.com</t>
+  </si>
+  <si>
+    <t>Create</t>
   </si>
   <si>
     <t>Samarth Hadimani</t>
@@ -447,13 +462,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,10 +481,13 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -478,12 +496,15 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -492,12 +513,15 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -506,12 +530,15 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -520,12 +547,15 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -534,12 +564,15 @@
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -548,12 +581,15 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
@@ -562,12 +598,15 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
@@ -576,12 +615,15 @@
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -590,12 +632,15 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -604,12 +649,15 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -618,21 +666,44 @@
         <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" t="s">
-        <v>3</v>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
